--- a/documents/trading.xlsx
+++ b/documents/trading.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\Youngermaster\Python-Excel-Practice\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1951BAD0-72F9-47C6-8A4B-38244EE4C22B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D24C1F11-888F-45B5-B2A6-C183F1A5A640}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{907628FB-C591-44C8-9E76-B3C82C9E064E}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{907628FB-C591-44C8-9E76-B3C82C9E064E}"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="InventarioEnMano" sheetId="1" r:id="rId1"/>
+    <sheet name="TD" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Row 1</t>
   </si>
@@ -65,13 +66,16 @@
   </si>
   <si>
     <t>Sunday</t>
+  </si>
+  <si>
+    <t>Row 4</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -85,6 +89,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -94,7 +106,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -102,13 +114,31 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -423,108 +453,155 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{699F30E6-736D-466B-A9AC-2215A4322F5F}">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="D1" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="2">
         <v>1</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="D2" s="2">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="2">
         <v>2</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+      <c r="D3" s="2">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="2">
         <v>3</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+      <c r="D4" s="2">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="2">
         <v>4</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+      <c r="D5" s="2">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="2">
         <v>5</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+      <c r="D6" s="2">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="2">
         <v>6</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+      <c r="D7" s="2">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="2">
         <v>7</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D8" s="2">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C9" s="1"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D10" s="3"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C13" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA6DB7EE-98F8-4F94-AD08-727BE10D7380}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>